--- a/server/templates/excel/SUBSTATION-BATTERIES.xlsx
+++ b/server/templates/excel/SUBSTATION-BATTERIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B26426-9C91-49D0-948C-8D99E57FB077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F63D1D-41F1-4C58-AA28-721CA178FE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Battery" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="119">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -65,9 +65,6 @@
     <t>Finished hour:</t>
   </si>
   <si>
-    <t>Inspection complete:       YES          NO</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
@@ -386,10 +383,16 @@
     <t>{last_revision_date}</t>
   </si>
   <si>
-    <t>{approved_by}</t>
-  </si>
-  <si>
-    <t>{inspected_by}</t>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>{value}</t>
+  </si>
+  <si>
+    <t>{final_observations}</t>
   </si>
 </sst>
 </file>
@@ -400,7 +403,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Nombre de la Firma Interventora   &quot;@"/>
     <numFmt numFmtId="165" formatCode="&quot;Nombre de la Urbanizadora  &quot;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -480,6 +483,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -501,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -764,13 +775,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -779,40 +790,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -826,7 +807,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -933,13 +914,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +982,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1351,7 +1331,7 @@
   <dimension ref="A1:Z412"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B62" sqref="B62:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1379,29 +1359,29 @@
       <c r="C1" s="34"/>
       <c r="D1" s="34"/>
       <c r="E1" s="44"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="68"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="19" t="s">
         <v>4</v>
       </c>
@@ -1414,24 +1394,24 @@
       <c r="N2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="82"/>
+      <c r="A3" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:14" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
@@ -1456,25 +1436,25 @@
       <c r="N4" s="36"/>
     </row>
     <row r="5" spans="1:14" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="83" t="s">
+      <c r="A5" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1483,15 +1463,15 @@
         <v>7</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -1504,14 +1484,14 @@
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -1521,7 +1501,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>0</v>
@@ -1532,7 +1512,7 @@
     <row r="8" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
@@ -1549,17 +1529,15 @@
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="10"/>
       <c r="F9" s="38"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="38" t="s">
-        <v>9</v>
-      </c>
+      <c r="J9" s="38"/>
       <c r="K9" s="12"/>
       <c r="L9" s="11"/>
       <c r="M9" s="45"/>
@@ -1583,23 +1561,23 @@
     </row>
     <row r="11" spans="1:14" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47"/>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1615,983 +1593,1327 @@
       <c r="K12" s="52"/>
       <c r="L12" s="52"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="61"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="52"/>
+      <c r="I13" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="52"/>
-      <c r="I13" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="60" t="s">
-        <v>15</v>
+      <c r="L13" s="58" t="s">
+        <v>14</v>
       </c>
       <c r="M13" s="51"/>
-      <c r="N13" s="69"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="52"/>
       <c r="I14" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="54"/>
+      <c r="L14" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M14" s="52"/>
-      <c r="N14" s="61"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="52"/>
       <c r="I15" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="54"/>
+      <c r="L15" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M15" s="52"/>
-      <c r="N15" s="61"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F16" s="52"/>
       <c r="I16" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="54"/>
+      <c r="L16" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M16" s="52"/>
-      <c r="N16" s="61"/>
+      <c r="N16" s="59"/>
     </row>
     <row r="17" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F17" s="52"/>
       <c r="I17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="54"/>
+      <c r="L17" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M17" s="52"/>
-      <c r="N17" s="61"/>
+      <c r="N17" s="59"/>
     </row>
     <row r="18" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F18" s="52"/>
       <c r="I18" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="54"/>
+      <c r="L18" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M18" s="52"/>
-      <c r="N18" s="61"/>
+      <c r="N18" s="59"/>
     </row>
     <row r="19" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F19" s="52"/>
       <c r="I19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="54"/>
+      <c r="L19" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M19" s="52"/>
-      <c r="N19" s="61"/>
+      <c r="N19" s="59"/>
     </row>
     <row r="20" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="I20" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="54"/>
+      <c r="L20" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M20" s="52"/>
-      <c r="N20" s="61"/>
+      <c r="N20" s="59"/>
     </row>
     <row r="21" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F21" s="52"/>
       <c r="I21" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="54"/>
+      <c r="L21" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M21" s="52"/>
-      <c r="N21" s="61"/>
+      <c r="N21" s="59"/>
     </row>
     <row r="22" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F22" s="52"/>
       <c r="I22" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="54"/>
+      <c r="L22" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M22" s="52"/>
-      <c r="N22" s="61"/>
+      <c r="N22" s="59"/>
     </row>
     <row r="23" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F23" s="52"/>
       <c r="I23" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="54"/>
+      <c r="L23" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M23" s="52"/>
-      <c r="N23" s="61"/>
+      <c r="N23" s="59"/>
     </row>
     <row r="24" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F24" s="52"/>
       <c r="I24" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="54"/>
+      <c r="L24" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M24" s="52"/>
-      <c r="N24" s="61"/>
+      <c r="N24" s="59"/>
     </row>
     <row r="25" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F25" s="52"/>
       <c r="I25" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="54"/>
+      <c r="L25" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M25" s="52"/>
-      <c r="N25" s="61"/>
+      <c r="N25" s="59"/>
     </row>
     <row r="26" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F26" s="52"/>
       <c r="I26" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="54"/>
+      <c r="L26" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M26" s="52"/>
-      <c r="N26" s="61"/>
+      <c r="N26" s="59"/>
     </row>
     <row r="27" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F27" s="52"/>
       <c r="I27" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="54"/>
+      <c r="L27" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M27" s="52"/>
-      <c r="N27" s="61"/>
+      <c r="N27" s="59"/>
     </row>
     <row r="28" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F28" s="52"/>
       <c r="I28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28" s="54"/>
+      <c r="L28" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M28" s="52"/>
-      <c r="N28" s="61"/>
+      <c r="N28" s="59"/>
     </row>
     <row r="29" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F29" s="52"/>
       <c r="I29" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="54"/>
+      <c r="L29" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M29" s="52"/>
-      <c r="N29" s="61"/>
+      <c r="N29" s="59"/>
     </row>
     <row r="30" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F30" s="52"/>
       <c r="I30" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J30" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="54"/>
+      <c r="L30" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M30" s="52"/>
-      <c r="N30" s="61"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="54"/>
+      <c r="E31" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F31" s="52"/>
       <c r="I31" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="L31" s="54"/>
+      <c r="L31" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M31" s="52"/>
-      <c r="N31" s="61"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="54"/>
+      <c r="E32" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F32" s="52"/>
       <c r="I32" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="54"/>
+      <c r="L32" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M32" s="52"/>
-      <c r="N32" s="61"/>
+      <c r="N32" s="59"/>
     </row>
     <row r="33" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="54"/>
+      <c r="E33" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" s="52"/>
       <c r="I33" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="J33" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="54"/>
+      <c r="L33" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M33" s="52"/>
-      <c r="N33" s="61"/>
+      <c r="N33" s="59"/>
     </row>
     <row r="34" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F34" s="52"/>
       <c r="I34" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="54"/>
+      <c r="L34" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M34" s="52"/>
-      <c r="N34" s="61"/>
+      <c r="N34" s="59"/>
     </row>
     <row r="35" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="54"/>
+      <c r="E35" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F35" s="52"/>
       <c r="I35" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="54"/>
+      <c r="L35" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M35" s="52"/>
-      <c r="N35" s="61"/>
+      <c r="N35" s="59"/>
     </row>
     <row r="36" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F36" s="52"/>
       <c r="I36" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K36" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="54"/>
+      <c r="L36" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M36" s="52"/>
-      <c r="N36" s="61"/>
+      <c r="N36" s="59"/>
     </row>
     <row r="37" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="54"/>
+      <c r="E37" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F37" s="52"/>
       <c r="I37" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K37" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="54"/>
+      <c r="L37" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M37" s="52"/>
-      <c r="N37" s="61"/>
+      <c r="N37" s="59"/>
     </row>
     <row r="38" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="54"/>
+      <c r="E38" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F38" s="52"/>
       <c r="I38" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K38" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L38" s="54"/>
+      <c r="L38" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M38" s="52"/>
-      <c r="N38" s="61"/>
+      <c r="N38" s="59"/>
     </row>
     <row r="39" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="54"/>
+      <c r="E39" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F39" s="52"/>
       <c r="I39" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="J39" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K39" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="L39" s="54"/>
+      <c r="L39" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M39" s="52"/>
-      <c r="N39" s="61"/>
+      <c r="N39" s="59"/>
     </row>
     <row r="40" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F40" s="52"/>
       <c r="I40" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="54"/>
+      <c r="L40" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M40" s="52"/>
-      <c r="N40" s="61"/>
+      <c r="N40" s="59"/>
     </row>
     <row r="41" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="54"/>
+      <c r="E41" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F41" s="52"/>
       <c r="I41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="L41" s="54"/>
+      <c r="L41" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M41" s="52"/>
-      <c r="N41" s="61"/>
+      <c r="N41" s="59"/>
     </row>
     <row r="42" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="54"/>
+      <c r="E42" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F42" s="52"/>
       <c r="I42" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J42" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="L42" s="54"/>
+      <c r="L42" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M42" s="52"/>
-      <c r="N42" s="61"/>
+      <c r="N42" s="59"/>
     </row>
     <row r="43" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F43" s="52"/>
       <c r="I43" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K43" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="L43" s="54"/>
+      <c r="L43" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M43" s="52"/>
-      <c r="N43" s="61"/>
+      <c r="N43" s="59"/>
     </row>
     <row r="44" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="54"/>
+      <c r="E44" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F44" s="52"/>
       <c r="I44" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="J44" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K44" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="L44" s="54"/>
+      <c r="L44" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M44" s="52"/>
-      <c r="N44" s="61"/>
+      <c r="N44" s="59"/>
     </row>
     <row r="45" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="54"/>
+      <c r="E45" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F45" s="52"/>
       <c r="I45" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K45" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" s="54"/>
+      <c r="L45" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M45" s="52"/>
-      <c r="N45" s="61"/>
+      <c r="N45" s="59"/>
     </row>
     <row r="46" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="54"/>
+      <c r="E46" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F46" s="52"/>
       <c r="I46" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J46" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K46" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="L46" s="54"/>
+      <c r="L46" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M46" s="52"/>
-      <c r="N46" s="61"/>
+      <c r="N46" s="59"/>
     </row>
     <row r="47" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="54"/>
+      <c r="E47" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F47" s="52"/>
       <c r="I47" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="L47" s="54"/>
+      <c r="L47" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M47" s="52"/>
-      <c r="N47" s="61"/>
+      <c r="N47" s="59"/>
     </row>
     <row r="48" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="54"/>
+      <c r="E48" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F48" s="52"/>
       <c r="I48" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" s="54"/>
+      <c r="L48" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M48" s="52"/>
-      <c r="N48" s="61"/>
+      <c r="N48" s="59"/>
     </row>
     <row r="49" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="54"/>
+      <c r="E49" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F49" s="52"/>
       <c r="I49" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="J49" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K49" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="L49" s="54"/>
+      <c r="L49" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M49" s="52"/>
-      <c r="N49" s="61"/>
+      <c r="N49" s="59"/>
     </row>
     <row r="50" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="54"/>
+      <c r="E50" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F50" s="52"/>
       <c r="I50" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K50" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L50" s="54"/>
+      <c r="L50" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M50" s="52"/>
-      <c r="N50" s="61"/>
+      <c r="N50" s="59"/>
     </row>
     <row r="51" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F51" s="52"/>
       <c r="I51" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="L51" s="54"/>
+      <c r="L51" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M51" s="52"/>
-      <c r="N51" s="61"/>
+      <c r="N51" s="59"/>
     </row>
     <row r="52" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="54"/>
+      <c r="E52" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F52" s="52"/>
       <c r="I52" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K52" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="L52" s="54"/>
+      <c r="L52" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M52" s="52"/>
-      <c r="N52" s="61"/>
+      <c r="N52" s="59"/>
     </row>
     <row r="53" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="54"/>
+      <c r="E53" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F53" s="52"/>
       <c r="I53" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J53" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K53" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="L53" s="54"/>
+      <c r="L53" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M53" s="52"/>
-      <c r="N53" s="61"/>
+      <c r="N53" s="59"/>
     </row>
     <row r="54" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="54"/>
+      <c r="E54" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F54" s="52"/>
       <c r="I54" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K54" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="L54" s="54"/>
+      <c r="L54" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M54" s="52"/>
-      <c r="N54" s="61"/>
+      <c r="N54" s="59"/>
     </row>
     <row r="55" spans="1:14" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="54"/>
+      <c r="E55" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F55" s="52"/>
       <c r="I55" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="L55" s="54"/>
+      <c r="L55" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M55" s="52"/>
-      <c r="N55" s="61"/>
+      <c r="N55" s="59"/>
     </row>
     <row r="56" spans="1:14" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="57"/>
+      <c r="E56" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="F56" s="52"/>
-      <c r="I56" s="55" t="s">
+      <c r="I56" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="L56" s="57"/>
+      <c r="L56" s="86" t="s">
+        <v>117</v>
+      </c>
       <c r="M56" s="52"/>
-      <c r="N56" s="61"/>
+      <c r="N56" s="59"/>
     </row>
     <row r="57" spans="1:14" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2607,60 +2929,60 @@
       <c r="K57" s="52"/>
       <c r="L57" s="52"/>
       <c r="M57" s="52"/>
-      <c r="N57" s="61"/>
+      <c r="N57" s="59"/>
     </row>
     <row r="58" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="70"/>
+        <v>101</v>
+      </c>
+      <c r="C58" s="68"/>
       <c r="D58" s="52"/>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="H58" s="52" t="s">
         <v>102</v>
-      </c>
-      <c r="H58" s="52" t="s">
-        <v>103</v>
       </c>
       <c r="I58" s="52"/>
       <c r="J58" s="52"/>
       <c r="K58" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L58" s="52"/>
       <c r="M58" s="52"/>
-      <c r="N58" s="61"/>
+      <c r="N58" s="59"/>
     </row>
     <row r="59" spans="1:14" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H59" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I59" s="52"/>
       <c r="J59" s="52"/>
       <c r="K59" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L59" s="52"/>
       <c r="M59" s="52"/>
-      <c r="N59" s="61"/>
+      <c r="N59" s="59"/>
     </row>
     <row r="60" spans="1:14" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="42"/>
       <c r="B60" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
@@ -2677,17 +2999,19 @@
     </row>
     <row r="61" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="32"/>
+      <c r="B61" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="M61" s="15"/>
       <c r="N61" s="4"/>
     </row>
     <row r="62" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
       <c r="G62" s="17"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -2699,19 +3023,19 @@
     </row>
     <row r="63" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="64"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="62"/>
     </row>
     <row r="64" spans="1:14" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -3418,32 +3742,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </OMContract>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </ASBDrawing>
-    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </CommencementNotice>
-    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008718130C2962994C90036D787BFA6B4C" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15183c27e6178b658cfb250166ea54db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7165ecc1-11a1-4a26-a452-208ffd706532" xmlns:ns3="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8e37365f111de1e71a8bd4cd3815cdbf" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3750,6 +4048,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <OMContract xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </OMContract>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ASBDrawing xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </ASBDrawing>
+    <CommencementNotice xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </CommencementNotice>
+    <Number_x0020_of_x0020_File xmlns="7165ecc1-11a1-4a26-a452-208ffd706532" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0cb1ff7e-53ad-49fc-9570-466d311f3e4b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7165ecc1-11a1-4a26-a452-208ffd706532">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27F16EBF-1ACA-4685-B1B9-406FFCA5AF3F}">
   <ds:schemaRefs>
@@ -3759,24 +4083,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C989408F-C913-478B-A80B-F1807BD99D11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A456A40A-1871-4F6B-9C0A-A602B70928F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3794,4 +4100,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C989408F-C913-478B-A80B-F1807BD99D11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0cb1ff7e-53ad-49fc-9570-466d311f3e4b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7165ecc1-11a1-4a26-a452-208ffd706532"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>